--- a/ScandinavianCargo/Test.xlsx
+++ b/ScandinavianCargo/Test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvanausdeln\Dropbox (Blume Global)\Documents\UiPath\AirCarrierRPA\DeltaCargo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Blume-proj\AirCarrierRPA\ScandinavianCargo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>WONumber</t>
   </si>
@@ -35,52 +35,34 @@
     <t>Waybill Number</t>
   </si>
   <si>
-    <t>006-19911743</t>
-  </si>
-  <si>
-    <t>006-09436291</t>
-  </si>
-  <si>
-    <t>T10116197</t>
-  </si>
-  <si>
-    <t>006-24967692</t>
-  </si>
-  <si>
-    <t>T040384452</t>
-  </si>
-  <si>
-    <t>006-24967600</t>
-  </si>
-  <si>
-    <t>T040384448</t>
-  </si>
-  <si>
-    <t>006-37771414</t>
-  </si>
-  <si>
-    <t>DJCMHA4223040</t>
-  </si>
-  <si>
-    <t>006-12369641</t>
-  </si>
-  <si>
-    <t>DJJFKA4222980</t>
-  </si>
-  <si>
-    <t>006-02739181</t>
-  </si>
-  <si>
-    <t>006-33346795</t>
-  </si>
-  <si>
-    <t>DJSYDA4222782</t>
-  </si>
-  <si>
-    <t>DJORDA4222562</t>
-  </si>
-  <si>
-    <t>006-39759053</t>
+    <t>117-65549061</t>
+  </si>
+  <si>
+    <t>117-36803410</t>
+  </si>
+  <si>
+    <t>117-33837241</t>
+  </si>
+  <si>
+    <t>117-37204893</t>
+  </si>
+  <si>
+    <t>117-89697893</t>
+  </si>
+  <si>
+    <t>117-89666640</t>
+  </si>
+  <si>
+    <t>117-89789055</t>
+  </si>
+  <si>
+    <t>117-89801574</t>
+  </si>
+  <si>
+    <t>117-35547223</t>
+  </si>
+  <si>
+    <t>117-36885774</t>
   </si>
 </sst>
 </file>
@@ -428,109 +410,109 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>2460117805</v>
+        <v>2870326740</v>
       </c>
       <c r="C2">
-        <v>2460117805</v>
+        <v>2870326740</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
+      <c r="B3" s="1">
+        <v>2870325422</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2870325422</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>2880048980</v>
+      </c>
+      <c r="C4">
+        <v>2880048980</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>2870326149</v>
+      </c>
+      <c r="C5">
+        <v>2870326149</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>2870326380</v>
       </c>
       <c r="C6">
-        <v>2262924696</v>
+        <v>2870326380</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>216005522</v>
       </c>
       <c r="C7">
-        <v>2061841875</v>
+        <v>216005522</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>2061844038</v>
+        <v>216005530</v>
       </c>
       <c r="C8">
-        <v>2061844038</v>
+        <v>216005530</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>2880048998</v>
       </c>
       <c r="C9">
-        <v>2951093681</v>
+        <v>2880048998</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>220427831</v>
       </c>
       <c r="C10">
-        <v>2042805313</v>
+        <v>220427831</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>2300257990</v>
+        <v>2870326840</v>
       </c>
       <c r="C11">
-        <v>2300257990</v>
+        <v>2870326840</v>
       </c>
     </row>
   </sheetData>
